--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fathih\eclipse-workspace\MyTestNG\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fathih\eclipse-workspace\Automation TestNG\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3BF44A-8236-4111-B434-5A711DBC068E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A300D1A0-773F-49BC-9F26-5EFA17F84EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Firstname</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Lastname</t>
+    <t>username</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>password</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>fathih</t>
   </si>
 </sst>
 </file>
@@ -357,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,21 +368,25 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
